--- a/opt.xlsx
+++ b/opt.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -384,9 +384,10 @@
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
     <col min="3" max="3" width="75.83203125" customWidth="1"/>
     <col min="4" max="4" width="60.83203125" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="60.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
     <col min="7" max="7" width="25.83203125" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -400,21 +401,24 @@
         <v>模組敘述</v>
       </c>
       <c r="D1" t="str">
+        <v>模組敘述(機器翻譯)</v>
+      </c>
+      <c r="E1" t="str">
         <v>下載網址</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>下載數量</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>更新日期</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>創建日期</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="str">
         <v>Colds Steel</v>
@@ -423,21 +427,24 @@
         <v>Offers a HUGE Selection of Weapons with Randomly Generated Abilities!</v>
       </c>
       <c r="D2" t="str">
+        <v>提供巨大的武器，隨機產生的能力！</v>
+      </c>
+      <c r="E2" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/colds-steel</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1845</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <v>2021-06-01T11:21:05.327Z</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" t="str">
         <v>2021-05-21T03:16:45.223Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="str">
         <v>Akisephila's Bosses</v>
@@ -446,21 +453,24 @@
         <v>Content Expansion mod for Minecraft 1.16.5</v>
       </c>
       <c r="D3" t="str">
+        <v>MINECRAFT 1.16.5的內容擴展MOD</v>
+      </c>
+      <c r="E3" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/akisephilas-bosses</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>140</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <v>2021-06-01T10:24:51.33Z</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <v>2021-05-31T10:22:22.93Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" t="str">
         <v>RpgDifficulty</v>
@@ -469,21 +479,24 @@
         <v>Strengthens mobs over distance/time</v>
       </c>
       <c r="D4" t="str">
+        <v>在距離/時間上加強怪物</v>
+      </c>
+      <c r="E4" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/rpgdifficulty</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>341</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <v>2021-06-01T09:17:39.153Z</v>
       </c>
-      <c r="G4" t="str">
+      <c r="H4" t="str">
         <v>2021-05-10T15:04:14.447Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" t="str">
         <v>Bigger World Mod</v>
@@ -492,21 +505,24 @@
         <v>A mod to multiply your options</v>
       </c>
       <c r="D5" t="str">
+        <v>一個乘以選項的mod</v>
+      </c>
+      <c r="E5" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/bigger-world-mod</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>251</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <v>2021-06-01T09:06:27.17Z</v>
       </c>
-      <c r="G5" t="str">
+      <c r="H5" t="str">
         <v>2021-05-20T09:36:45.317Z</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" t="str">
         <v>More Commands Mod</v>
@@ -515,21 +531,24 @@
         <v>Adds useful commands to the game</v>
       </c>
       <c r="D6" t="str">
+        <v>為遊戲添加有用的命令</v>
+      </c>
+      <c r="E6" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/morecmds</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>18</v>
       </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
         <v>2021-06-01T08:08:56.64Z</v>
       </c>
-      <c r="G6" t="str">
+      <c r="H6" t="str">
         <v>2021-05-30T04:38:00.09Z</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" t="str">
         <v>FireplaceMode</v>
@@ -538,21 +557,24 @@
         <v>Removes save button if not near campfire</v>
       </c>
       <c r="D7" t="str">
+        <v>如果不靠近篝火，請刪除保存按鈕</v>
+      </c>
+      <c r="E7" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/fireplacemode</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>628</v>
       </c>
-      <c r="F7" t="str">
+      <c r="G7" t="str">
         <v>2021-06-01T07:41:49.057Z</v>
       </c>
-      <c r="G7" t="str">
+      <c r="H7" t="str">
         <v>2021-05-11T17:05:29.137Z</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="str">
         <v>Modern Life</v>
@@ -561,21 +583,24 @@
         <v>Modernize your lifestyle with cameras, paintings, chainsaws, roads, speedometers, chess, glass doors, flashlights, and more!</v>
       </c>
       <c r="D8" t="str">
+        <v>使用相機，繪畫，電鋸，道路，速度計，棋，玻璃門，手電筒等現代化您的生活方式現代化！</v>
+      </c>
+      <c r="E8" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/modern-life</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>3741</v>
       </c>
-      <c r="F8" t="str">
+      <c r="G8" t="str">
         <v>2021-06-01T04:34:54.917Z</v>
       </c>
-      <c r="G8" t="str">
+      <c r="H8" t="str">
         <v>2021-05-16T17:50:10.287Z</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="str">
         <v>Better Safe Bed (Forge/Fabric)</v>
@@ -584,21 +609,24 @@
         <v>Let you able to sleep when the hostile mobs around the bed can't target you.</v>
       </c>
       <c r="D9" t="str">
+        <v>當床上周圍的敵對暴徒無法瞄准你時，讓你能睡覺。</v>
+      </c>
+      <c r="E9" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/better-safe-bed</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1355</v>
       </c>
-      <c r="F9" t="str">
+      <c r="G9" t="str">
         <v>2021-06-01T04:22:43.643Z</v>
       </c>
-      <c r="G9" t="str">
+      <c r="H9" t="str">
         <v>2021-05-21T17:45:41.067Z</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" t="str">
         <v>🌠 IDE Better Command Block V1 🌠</v>
@@ -607,21 +635,24 @@
         <v>(NEW) IDE, Editor multi line for command block and more 🍀</v>
       </c>
       <c r="D10" t="str">
+        <v>（新）IDE，編輯器多行用於命令塊等🍀</v>
+      </c>
+      <c r="E10" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/bettercommandblock</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>31</v>
       </c>
-      <c r="F10" t="str">
+      <c r="G10" t="str">
         <v>2021-06-01T02:37:27.663Z</v>
       </c>
-      <c r="G10" t="str">
+      <c r="H10" t="str">
         <v>2021-05-26T00:15:12.48Z</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B11" t="str">
         <v>Zeph's Hammers</v>
@@ -630,21 +661,24 @@
         <v>Lots of hammers that break 3x3 blocks at a time</v>
       </c>
       <c r="D11" t="str">
+        <v>許多錘子一次打破3x3塊</v>
+      </c>
+      <c r="E11" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/zephs-hammers</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>139</v>
       </c>
-      <c r="F11" t="str">
+      <c r="G11" t="str">
         <v>2021-06-01T01:46:58.733Z</v>
       </c>
-      <c r="G11" t="str">
+      <c r="H11" t="str">
         <v>2021-05-24T14:16:38.34Z</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B12" t="str">
         <v>Ability Powers</v>
@@ -653,21 +687,24 @@
         <v>Earn Abilitys and Ultimates</v>
       </c>
       <c r="D12" t="str">
+        <v>獲得能力和最終的能力</v>
+      </c>
+      <c r="E12" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/ability-powers</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2321</v>
       </c>
-      <c r="F12" t="str">
+      <c r="G12" t="str">
         <v>2021-06-01T01:46:12.453Z</v>
       </c>
-      <c r="G12" t="str">
+      <c r="H12" t="str">
         <v>2021-05-08T05:47:26.543Z</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B13" t="str">
         <v>Ore Galore!</v>
@@ -676,21 +713,24 @@
         <v>Adds LOTS of new unique ores to minecraft.</v>
       </c>
       <c r="D13" t="str">
+        <v>為MINECRAFT添加了許多新的獨特礦石。</v>
+      </c>
+      <c r="E13" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/ore-galore</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0</v>
       </c>
-      <c r="F13" t="str">
+      <c r="G13" t="str">
         <v>2021-06-01T08:46:32.003Z</v>
       </c>
-      <c r="G13" t="str">
+      <c r="H13" t="str">
         <v>2021-05-31T23:57:06.983Z</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B14" t="str">
         <v>More Villagers [Fabric]</v>
@@ -699,21 +739,24 @@
         <v>Adds new villager jobs to the game, with unique trades and workstations!</v>
       </c>
       <c r="D14" t="str">
+        <v>將新村民工作添加到遊戲中，具有獨特的交易和工作站！</v>
+      </c>
+      <c r="E14" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/more-villagers-fabric</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>3423</v>
       </c>
-      <c r="F14" t="str">
+      <c r="G14" t="str">
         <v>2021-06-01T00:28:47.103Z</v>
       </c>
-      <c r="G14" t="str">
+      <c r="H14" t="str">
         <v>2021-05-25T00:08:18.993Z</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B15" t="str">
         <v>Domy's Immunity Serums</v>
@@ -722,21 +765,24 @@
         <v>Keep Certain Effects from being Reapplied (For 10 seconds per drink)</v>
       </c>
       <c r="D15" t="str">
+        <v>保持某些效果正在重新刪除（每次飲料10秒）</v>
+      </c>
+      <c r="E15" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/immunity-serums</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0</v>
       </c>
-      <c r="F15" t="str">
+      <c r="G15" t="str">
         <v>2021-06-01T08:46:18.983Z</v>
       </c>
-      <c r="G15" t="str">
+      <c r="H15" t="str">
         <v>2021-05-31T23:52:11.1Z</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B16" t="str">
         <v>EnderIO Alloys</v>
@@ -745,21 +791,24 @@
         <v>Forge Mod that adds the EnderIO alloys</v>
       </c>
       <c r="D16" t="str">
+        <v>鍛造模型添加Enderio合金</v>
+      </c>
+      <c r="E16" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/enderio-alloys</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0</v>
       </c>
-      <c r="F16" t="str">
+      <c r="G16" t="str">
         <v>2021-06-01T08:48:23.817Z</v>
       </c>
-      <c r="G16" t="str">
+      <c r="H16" t="str">
         <v>2021-05-31T23:15:07.16Z</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17" t="str">
         <v>Dynamic Trees - TerraForged</v>
@@ -768,21 +817,24 @@
         <v>Dynamic Trees compatibility add-on for TerraForged</v>
       </c>
       <c r="D17" t="str">
+        <v>Terraforged的動態樹兼容性加載項</v>
+      </c>
+      <c r="E17" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/dynamic-trees-terraforged</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0</v>
       </c>
-      <c r="F17" t="str">
+      <c r="G17" t="str">
         <v>2021-06-01T08:48:17.763Z</v>
       </c>
-      <c r="G17" t="str">
+      <c r="H17" t="str">
         <v>2021-05-31T22:12:06.66Z</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B18" t="str">
         <v>More Villagers</v>
@@ -791,21 +843,24 @@
         <v>Adds new villager jobs to the game, with unique trades and workstations!</v>
       </c>
       <c r="D18" t="str">
+        <v>將新村民工作添加到遊戲中，具有獨特的交易和工作站！</v>
+      </c>
+      <c r="E18" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/more-villagers</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>38542</v>
       </c>
-      <c r="F18" t="str">
+      <c r="G18" t="str">
         <v>2021-05-31T22:24:57.273Z</v>
       </c>
-      <c r="G18" t="str">
+      <c r="H18" t="str">
         <v>2021-05-22T02:33:24.693Z</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B19" t="str">
         <v>Name Lookup</v>
@@ -814,21 +869,24 @@
         <v>This mod allows you to look up a player's username history with the use of /namelookup.</v>
       </c>
       <c r="D19" t="str">
+        <v>此Mod允許您使用/ namelookup查找玩家的用戶名歷史記錄。</v>
+      </c>
+      <c r="E19" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/name-lookup</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0</v>
       </c>
-      <c r="F19" t="str">
+      <c r="G19" t="str">
         <v>2021-06-01T08:48:35.333Z</v>
       </c>
-      <c r="G19" t="str">
+      <c r="H19" t="str">
         <v>2021-05-31T22:02:24.607Z</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B20" t="str">
         <v>MagicCraftia</v>
@@ -837,21 +895,24 @@
         <v>You can upgrade your Gear,  craft good Items and fight strong Bosses!</v>
       </c>
       <c r="D20" t="str">
+        <v>您可以升級您的裝備，工藝好物品，並打擊強壯的老闆！</v>
+      </c>
+      <c r="E20" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/magiccraftia</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>21</v>
       </c>
-      <c r="F20" t="str">
+      <c r="G20" t="str">
         <v>2021-05-31T21:44:51.08Z</v>
       </c>
-      <c r="G20" t="str">
+      <c r="H20" t="str">
         <v>2021-05-29T22:01:37.57Z</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B21" t="str">
         <v>RGB Blocks (Forge)</v>
@@ -860,21 +921,24 @@
         <v>Blocks in almost all colors you can imagine.</v>
       </c>
       <c r="D21" t="str">
+        <v>幾乎所有顏色的塊你可以想像的。</v>
+      </c>
+      <c r="E21" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/rgb-blocks-forge</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>217</v>
       </c>
-      <c r="F21" t="str">
+      <c r="G21" t="str">
         <v>2021-05-31T20:39:48.007Z</v>
       </c>
-      <c r="G21" t="str">
+      <c r="H21" t="str">
         <v>2021-05-22T22:58:28.227Z</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B22" t="str">
         <v>Inlis Random things mod</v>
@@ -883,21 +947,24 @@
         <v>adds random things</v>
       </c>
       <c r="D22" t="str">
+        <v>添加隨機的東西</v>
+      </c>
+      <c r="E22" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/inlis-random-things-mod</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>10</v>
       </c>
-      <c r="F22" t="str">
+      <c r="G22" t="str">
         <v>2021-05-31T20:28:47.987Z</v>
       </c>
-      <c r="G22" t="str">
+      <c r="H22" t="str">
         <v>2021-05-29T22:55:15.793Z</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B23" t="str">
         <v>Potion Foods</v>
@@ -906,21 +973,24 @@
         <v>Potion Foods allows players to combine potions with food to get food items that have the same effects as potions.</v>
       </c>
       <c r="D23" t="str">
+        <v>藥水食品允許玩家將藥水與食物結合起來獲取具有與藥水相同效果的食品。</v>
+      </c>
+      <c r="E23" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/potion-foods</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0</v>
       </c>
-      <c r="F23" t="str">
+      <c r="G23" t="str">
         <v>2021-06-01T08:48:41.987Z</v>
       </c>
-      <c r="G23" t="str">
+      <c r="H23" t="str">
         <v>2021-05-31T20:13:05.227Z</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B24" t="str">
         <v>Creative Tweaker</v>
@@ -929,21 +999,24 @@
         <v>A mod that patches new ways to craft the creative/endgame items from a growing variety of mods</v>
       </c>
       <c r="D24" t="str">
+        <v>一個修補新方法，可以從越來越多的Mod中製作創意/終結物品</v>
+      </c>
+      <c r="E24" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/creative-tweaker</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0</v>
       </c>
-      <c r="F24" t="str">
+      <c r="G24" t="str">
         <v>2021-06-01T08:48:39.283Z</v>
       </c>
-      <c r="G24" t="str">
+      <c r="H24" t="str">
         <v>2021-05-31T20:19:03.303Z</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B25" t="str">
         <v>Better Rituals</v>
@@ -952,21 +1025,24 @@
         <v>adds a new kind of rituals to the game!</v>
       </c>
       <c r="D25" t="str">
+        <v>為遊戲增加了一種新的儀式！</v>
+      </c>
+      <c r="E25" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/better-rituals</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0</v>
       </c>
-      <c r="F25" t="str">
+      <c r="G25" t="str">
         <v>2021-06-01T08:52:17.053Z</v>
       </c>
-      <c r="G25" t="str">
+      <c r="H25" t="str">
         <v>2021-05-31T19:48:06.32Z</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B26" t="str">
         <v>Bean's Bamboo Jerky</v>
@@ -975,21 +1051,24 @@
         <v>Adds more food.</v>
       </c>
       <c r="D26" t="str">
+        <v>增加更多的食物。</v>
+      </c>
+      <c r="E26" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/beans-bamboo-jerky</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0</v>
       </c>
-      <c r="F26" t="str">
+      <c r="G26" t="str">
         <v>2021-06-01T08:52:20.723Z</v>
       </c>
-      <c r="G26" t="str">
+      <c r="H26" t="str">
         <v>2021-05-31T19:42:05.427Z</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B27" t="str">
         <v>Miscreated Geology</v>
@@ -998,21 +1077,24 @@
         <v>A Miscreated Modpack addon that adds geological stone variants</v>
       </c>
       <c r="D27" t="str">
+        <v>一個誤進的modpack加丁，增加了地質石變種</v>
+      </c>
+      <c r="E27" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/miscreated-geology</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>144</v>
       </c>
-      <c r="F27" t="str">
+      <c r="G27" t="str">
         <v>2021-05-31T19:30:58.547Z</v>
       </c>
-      <c r="G27" t="str">
+      <c r="H27" t="str">
         <v>2021-05-24T18:57:33.803Z</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B28" t="str">
         <v>UsefulBackpacks</v>
@@ -1021,21 +1103,24 @@
         <v>Need more inventory storage? Try these backpacks</v>
       </c>
       <c r="D28" t="str">
+        <v>需要更多庫存存儲？ 嘗試這些背包</v>
+      </c>
+      <c r="E28" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/usefulbackpacks</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0</v>
       </c>
-      <c r="F28" t="str">
+      <c r="G28" t="str">
         <v>2021-06-01T08:52:15.707Z</v>
       </c>
-      <c r="G28" t="str">
+      <c r="H28" t="str">
         <v>2021-05-31T19:23:07.4Z</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B29" t="str">
         <v>Applied Energistics 2 Wireless Terminals Forge</v>
@@ -1044,21 +1129,24 @@
         <v>AE2 addon that adds wireless terminals</v>
       </c>
       <c r="D29" t="str">
+        <v>AE2添加無線終端的插件</v>
+      </c>
+      <c r="E29" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/applied-energistics-2-wireless-terminals-forge</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>2189</v>
       </c>
-      <c r="F29" t="str">
+      <c r="G29" t="str">
         <v>2021-05-31T19:14:53.693Z</v>
       </c>
-      <c r="G29" t="str">
+      <c r="H29" t="str">
         <v>2021-05-17T13:46:11.087Z</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B30" t="str">
         <v>Isometric Renders</v>
@@ -1067,21 +1155,24 @@
         <v>Creates high-resolution isometric screenshots of game objects</v>
       </c>
       <c r="D30" t="str">
+        <v>創建遊戲對象的高分辨率等距截圖</v>
+      </c>
+      <c r="E30" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/isometric-renders</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>287</v>
       </c>
-      <c r="F30" t="str">
+      <c r="G30" t="str">
         <v>2021-05-31T19:10:32.257Z</v>
       </c>
-      <c r="G30" t="str">
+      <c r="H30" t="str">
         <v>2021-05-18T20:18:58.373Z</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B31" t="str">
         <v>Miscreated Mobs</v>
@@ -1090,21 +1181,24 @@
         <v>Miscreated Modpack Mob Addon</v>
       </c>
       <c r="D31" t="str">
+        <v>Moccreated Modpack Mob Addon</v>
+      </c>
+      <c r="E31" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/miscreated-mobs</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>311</v>
       </c>
-      <c r="F31" t="str">
+      <c r="G31" t="str">
         <v>2021-05-31T18:58:47.17Z</v>
       </c>
-      <c r="G31" t="str">
+      <c r="H31" t="str">
         <v>2021-05-23T21:05:12.627Z</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B32" t="str">
         <v>Expanded</v>
@@ -1113,297 +1207,284 @@
         <v>Pretty much a lot of stuff</v>
       </c>
       <c r="D32" t="str">
+        <v>幾乎很多東西</v>
+      </c>
+      <c r="E32" t="str">
         <v>https://www.curseforge.com/minecraft/mc-mods/expanded</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>21</v>
       </c>
-      <c r="F32" t="str">
+      <c r="G32" t="str">
         <v>2021-05-31T18:38:59.907Z</v>
       </c>
-      <c r="G32" t="str">
+      <c r="H32" t="str">
         <v>2021-05-07T21:56:14.923Z</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B33" t="str">
-        <v>SaveCoordinates</v>
+        <v>S.A.E</v>
       </c>
       <c r="C33" t="str">
-        <v>Save and retrieve minecraft coordinates</v>
+        <v>Saddle armour for horses and elytras.</v>
       </c>
       <c r="D33" t="str">
-        <v>https://www.curseforge.com/minecraft/mc-mods/savecoordinates</v>
-      </c>
-      <c r="E33">
-        <v>18</v>
-      </c>
-      <c r="F33" t="str">
-        <v>2021-05-31T18:15:45.937Z</v>
+        <v>馬匹和elytras的馬鞍盔甲。</v>
+      </c>
+      <c r="E33" t="str">
+        <v>https://www.curseforge.com/minecraft/mc-mods/s-a-e</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
       </c>
       <c r="G33" t="str">
-        <v>2021-05-23T14:54:30.31Z</v>
+        <v>2021-06-01T12:17:57.27Z</v>
+      </c>
+      <c r="H33" t="str">
+        <v>2021-05-31T18:22:18.973Z</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B34" t="str">
-        <v>simples meteorites</v>
+        <v>SaveCoordinates</v>
       </c>
       <c r="C34" t="str">
-        <v>simples meteorites mod</v>
+        <v>Save and retrieve minecraft coordinates</v>
       </c>
       <c r="D34" t="str">
-        <v>https://www.curseforge.com/minecraft/mc-mods/simples-meteorites</v>
-      </c>
-      <c r="E34">
-        <v>100</v>
-      </c>
-      <c r="F34" t="str">
-        <v>2021-05-31T17:49:57.973Z</v>
+        <v>保存並檢索Minecraft坐標</v>
+      </c>
+      <c r="E34" t="str">
+        <v>https://www.curseforge.com/minecraft/mc-mods/savecoordinates</v>
+      </c>
+      <c r="F34">
+        <v>18</v>
       </c>
       <c r="G34" t="str">
-        <v>2021-05-20T16:10:16.89Z</v>
+        <v>2021-05-31T18:15:45.937Z</v>
+      </c>
+      <c r="H34" t="str">
+        <v>2021-05-23T14:54:30.31Z</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B35" t="str">
-        <v>crafting enchanted golden apple</v>
+        <v>simples meteorites</v>
       </c>
       <c r="C35" t="str">
-        <v>crafting enchanted golden apple mod</v>
+        <v>simples meteorites mod</v>
       </c>
       <c r="D35" t="str">
-        <v>https://www.curseforge.com/minecraft/mc-mods/crafting-enchanted-golden-apple</v>
-      </c>
-      <c r="E35">
-        <v>53</v>
-      </c>
-      <c r="F35" t="str">
-        <v>2021-05-31T17:26:46.36Z</v>
+        <v>Simples Meteorites Mod.</v>
+      </c>
+      <c r="E35" t="str">
+        <v>https://www.curseforge.com/minecraft/mc-mods/simples-meteorites</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
       </c>
       <c r="G35" t="str">
-        <v>2021-05-25T14:04:51.977Z</v>
+        <v>2021-05-31T17:49:57.973Z</v>
+      </c>
+      <c r="H35" t="str">
+        <v>2021-05-20T16:10:16.89Z</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" t="str">
-        <v>Battle Adventure</v>
+        <v>crafting enchanted golden apple</v>
       </c>
       <c r="C36" t="str">
-        <v>This mod adds new tools, new dimensions, new blocks, new mobs, new bosses, new ores, new structures and more!</v>
+        <v>crafting enchanted golden apple mod</v>
       </c>
       <c r="D36" t="str">
-        <v>https://www.curseforge.com/minecraft/mc-mods/battle-tools</v>
-      </c>
-      <c r="E36">
-        <v>4373</v>
-      </c>
-      <c r="F36" t="str">
-        <v>2021-05-31T17:05:41.78Z</v>
+        <v>製作迷人的金蘋果mod</v>
+      </c>
+      <c r="E36" t="str">
+        <v>https://www.curseforge.com/minecraft/mc-mods/crafting-enchanted-golden-apple</v>
+      </c>
+      <c r="F36">
+        <v>53</v>
       </c>
       <c r="G36" t="str">
-        <v>2021-05-02T13:40:58.993Z</v>
+        <v>2021-05-31T17:26:46.36Z</v>
+      </c>
+      <c r="H36" t="str">
+        <v>2021-05-25T14:04:51.977Z</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B37" t="str">
-        <v>Ore Detector</v>
+        <v>Battle Adventure</v>
       </c>
       <c r="C37" t="str">
-        <v>This mod brings an Ore Detector that locates any ore</v>
+        <v>This mod adds new tools, new dimensions, new blocks, new mobs, new bosses, new ores, new structures and more!</v>
       </c>
       <c r="D37" t="str">
-        <v>https://www.curseforge.com/minecraft/mc-mods/ore-detector</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" t="str">
-        <v>2021-06-01T08:52:23.24Z</v>
+        <v>此Mod添加新的工具，新尺寸，新塊，新暴徒，新老闆，新礦石，新結構等！</v>
+      </c>
+      <c r="E37" t="str">
+        <v>https://www.curseforge.com/minecraft/mc-mods/battle-tools</v>
+      </c>
+      <c r="F37">
+        <v>4373</v>
       </c>
       <c r="G37" t="str">
-        <v>2021-05-31T16:32:01.307Z</v>
+        <v>2021-05-31T17:05:41.78Z</v>
+      </c>
+      <c r="H37" t="str">
+        <v>2021-05-02T13:40:58.993Z</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B38" t="str">
-        <v>Spaghetti's Extra Tools</v>
+        <v>Ore Detector</v>
       </c>
       <c r="C38" t="str">
-        <v>Adds new tools made with preexisting items to Minecraft!</v>
+        <v>This mod brings an Ore Detector that locates any ore</v>
       </c>
       <c r="D38" t="str">
-        <v>https://www.curseforge.com/minecraft/mc-mods/spaghettis-extra-tools</v>
-      </c>
-      <c r="E38">
-        <v>51</v>
-      </c>
-      <c r="F38" t="str">
-        <v>2021-05-31T16:39:41.293Z</v>
+        <v>該MOD帶來了定位任何礦石的礦石探測器</v>
+      </c>
+      <c r="E38" t="str">
+        <v>https://www.curseforge.com/minecraft/mc-mods/ore-detector</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
       </c>
       <c r="G38" t="str">
-        <v>2021-05-24T18:24:20.023Z</v>
+        <v>2021-06-01T08:52:23.24Z</v>
+      </c>
+      <c r="H38" t="str">
+        <v>2021-05-31T16:32:01.307Z</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B39" t="str">
-        <v>Gamerules+</v>
+        <v>Spaghetti's Extra Tools</v>
       </c>
       <c r="C39" t="str">
-        <v>Adds extra gamerules added into our favorite block game. Currently in beta</v>
+        <v>Adds new tools made with preexisting items to Minecraft!</v>
       </c>
       <c r="D39" t="str">
-        <v>https://www.curseforge.com/minecraft/mc-mods/gamerules</v>
-      </c>
-      <c r="E39">
-        <v>9</v>
-      </c>
-      <c r="F39" t="str">
-        <v>2021-05-31T16:25:20.78Z</v>
+        <v>將使用預先存在的物品添加到MINECRAFT中的新工具！</v>
+      </c>
+      <c r="E39" t="str">
+        <v>https://www.curseforge.com/minecraft/mc-mods/spaghettis-extra-tools</v>
+      </c>
+      <c r="F39">
+        <v>51</v>
       </c>
       <c r="G39" t="str">
-        <v>2021-05-28T23:40:15.153Z</v>
+        <v>2021-05-31T16:39:41.293Z</v>
+      </c>
+      <c r="H39" t="str">
+        <v>2021-05-24T18:24:20.023Z</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B40" t="str">
-        <v>RefinedForage</v>
+        <v>Gamerules+</v>
       </c>
       <c r="C40" t="str">
-        <v>this is a technical mod</v>
+        <v>Adds extra gamerules added into our favorite block game. Currently in beta</v>
       </c>
       <c r="D40" t="str">
-        <v>https://www.curseforge.com/minecraft/mc-mods/refinedforage</v>
-      </c>
-      <c r="E40">
-        <v>43</v>
-      </c>
-      <c r="F40" t="str">
-        <v>2021-05-31T16:11:55.04Z</v>
+        <v>添加額外的遊戲商添加到我們最喜歡的塊遊戲中。 目前在測試版中</v>
+      </c>
+      <c r="E40" t="str">
+        <v>https://www.curseforge.com/minecraft/mc-mods/gamerules</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
       </c>
       <c r="G40" t="str">
-        <v>2021-05-16T07:13:23.237Z</v>
+        <v>2021-05-31T16:25:20.78Z</v>
+      </c>
+      <c r="H40" t="str">
+        <v>2021-05-28T23:40:15.153Z</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B41" t="str">
-        <v>QuickCure</v>
+        <v>RefinedForage</v>
       </c>
       <c r="C41" t="str">
-        <v>Cure zombie villagers instantly</v>
+        <v>this is a technical mod</v>
       </c>
       <c r="D41" t="str">
-        <v>https://www.curseforge.com/minecraft/mc-mods/quickcure</v>
-      </c>
-      <c r="E41">
-        <v>49</v>
-      </c>
-      <c r="F41" t="str">
-        <v>2021-05-31T16:01:58.863Z</v>
+        <v>這是一種技術模式</v>
+      </c>
+      <c r="E41" t="str">
+        <v>https://www.curseforge.com/minecraft/mc-mods/refinedforage</v>
+      </c>
+      <c r="F41">
+        <v>43</v>
       </c>
       <c r="G41" t="str">
-        <v>2021-05-29T22:31:00.497Z</v>
+        <v>2021-05-31T16:11:55.04Z</v>
+      </c>
+      <c r="H41" t="str">
+        <v>2021-05-16T07:13:23.237Z</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B42" t="str">
-        <v>Speedrun RNG</v>
+        <v>QuickCure</v>
       </c>
       <c r="C42" t="str">
-        <v>That one guy's funny real RNG</v>
+        <v>Cure zombie villagers instantly</v>
       </c>
       <c r="D42" t="str">
-        <v>https://www.curseforge.com/minecraft/mc-mods/speedrun-rng</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="str">
-        <v>2021-06-01T08:52:27.183Z</v>
+        <v>立即治療殭屍村民</v>
+      </c>
+      <c r="E42" t="str">
+        <v>https://www.curseforge.com/minecraft/mc-mods/quickcure</v>
+      </c>
+      <c r="F42">
+        <v>49</v>
       </c>
       <c r="G42" t="str">
-        <v>2021-05-31T15:45:57.78Z</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>99</v>
-      </c>
-      <c r="B43" t="str">
-        <v>Hunger Mechanics</v>
-      </c>
-      <c r="C43" t="str">
-        <v>More hunger mechanics for modpacks.</v>
-      </c>
-      <c r="D43" t="str">
-        <v>https://www.curseforge.com/minecraft/mc-mods/hunger-mechanics</v>
-      </c>
-      <c r="E43">
-        <v>72</v>
-      </c>
-      <c r="F43" t="str">
-        <v>2021-05-31T15:44:20.287Z</v>
-      </c>
-      <c r="G43" t="str">
-        <v>2021-05-09T18:42:56.977Z</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>100</v>
-      </c>
-      <c r="B44" t="str">
-        <v>upgraged stones</v>
-      </c>
-      <c r="C44" t="str">
-        <v>upgraged stones</v>
-      </c>
-      <c r="D44" t="str">
-        <v>https://www.curseforge.com/minecraft/mc-mods/upgraged-stones</v>
-      </c>
-      <c r="E44">
-        <v>57</v>
-      </c>
-      <c r="F44" t="str">
-        <v>2021-05-31T15:27:46.307Z</v>
-      </c>
-      <c r="G44" t="str">
-        <v>2021-05-22T17:36:56.93Z</v>
+        <v>2021-05-31T16:01:58.863Z</v>
+      </c>
+      <c r="H42" t="str">
+        <v>2021-05-29T22:31:00.497Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G44"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H42"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/opt.xlsx
+++ b/opt.xlsx
@@ -383,7 +383,7 @@
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
     <col min="3" max="3" width="75.83203125" customWidth="1"/>
-    <col min="4" max="4" width="60.83203125" customWidth="1"/>
+    <col min="4" max="4" width="65.83203125" customWidth="1"/>
     <col min="5" max="5" width="60.83203125" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" customWidth="1"/>
     <col min="7" max="7" width="25.83203125" customWidth="1"/>
@@ -418,7 +418,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="str">
         <v>Colds Steel</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="str">
         <v>Akisephila's Bosses</v>
@@ -1135,7 +1135,7 @@
         <v>https://www.curseforge.com/minecraft/mc-mods/applied-energistics-2-wireless-terminals-forge</v>
       </c>
       <c r="F29">
-        <v>2189</v>
+        <v>2330</v>
       </c>
       <c r="G29" t="str">
         <v>2021-05-31T19:14:53.693Z</v>

--- a/opt.xlsx
+++ b/opt.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>模組圖示</t>
   </si>
@@ -92,24 +92,6 @@
   </si>
   <si>
     <t>2021-05-28T21:21:54.367Z</t>
-  </si>
-  <si>
-    <t>🌠 IDE Better Command Block V1 🌠</t>
-  </si>
-  <si>
-    <t>(NEW) IDE, Editor multi line for command block and more 🍀</t>
-  </si>
-  <si>
-    <t>（新）IDE，編輯器多行用於命令塊等🍀</t>
-  </si>
-  <si>
-    <t>https://www.curseforge.com/minecraft/mc-mods/bettercommandblock</t>
-  </si>
-  <si>
-    <t>2021-06-02T02:27:47.06Z</t>
-  </si>
-  <si>
-    <t>2021-05-26T00:15:12.48Z</t>
   </si>
 </sst>
 </file>
@@ -172,19 +154,9 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="914400" y="4572000"/>
+    <xdr:ext cx="5715000" cy="5715000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr descr="637571002053490370.jpeg" id="2" name="637571002053490370.jpeg" title="637571002053490370.jpeg"/>
@@ -209,20 +181,10 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="914400" y="4572000"/>
+    <xdr:ext cx="3829050" cy="3829050"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr descr="637558419815311089.png" id="3" name="637558419815311089.png" title="637558419815311089.png"/>
@@ -247,57 +209,29 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr descr="637578337144327739.png" id="4" name="637578337144327739.png" title="637578337144327739.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9753600" cy="9753600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="75" customWidth="1"/>
+    <col min="5" max="5" width="60" customWidth="1"/>
+    <col min="6" max="6" width="80" customWidth="1"/>
+    <col min="8" max="8" width="35" customWidth="1"/>
+    <col min="9" max="9" width="35" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="0" ht="22.5" customHeight="1"/>
+    <row r="1" spans="1:9" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -326,9 +260,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" ht="22.5" customHeight="1">
       <c r="B2" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -352,9 +286,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" ht="22.5" customHeight="1">
       <c r="B3" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -369,7 +303,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>3769</v>
+        <v>3790</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>19</v>
@@ -378,9 +312,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" ht="22.5" customHeight="1">
       <c r="B4" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -404,40 +338,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="5" ht="22.5" customHeight="1"/>
+    <row r="6" ht="22.5" customHeight="1"/>
+    <row r="7" ht="22.5" customHeight="1"/>
+    <row r="8" ht="22.5" customHeight="1"/>
+    <row r="9" ht="22.5" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://www.curseforge.com/minecraft/mc-mods/bigger-world-mod" address="https://www.curseforge.com/minecraft/mc-mods/bigger-world-mod" tooltip="https://www.curseforge.com/minecraft/mc-mods/bigger-world-mod"/>
     <hyperlink ref="F3" r:id="rId2" display="https://www.curseforge.com/minecraft/mc-mods/yurinas-enderite-mod" address="https://www.curseforge.com/minecraft/mc-mods/yurinas-enderite-mod" tooltip="https://www.curseforge.com/minecraft/mc-mods/yurinas-enderite-mod"/>
     <hyperlink ref="F4" r:id="rId3" display="https://www.curseforge.com/minecraft/mc-mods/wireless-chest-acses" address="https://www.curseforge.com/minecraft/mc-mods/wireless-chest-acses" tooltip="https://www.curseforge.com/minecraft/mc-mods/wireless-chest-acses"/>
-    <hyperlink ref="F5" r:id="rId4" display="https://www.curseforge.com/minecraft/mc-mods/bettercommandblock" address="https://www.curseforge.com/minecraft/mc-mods/bettercommandblock" tooltip="https://www.curseforge.com/minecraft/mc-mods/bettercommandblock"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>